--- a/Modding resources/mineral calculations/size_modifier.xlsx
+++ b/Modding resources/mineral calculations/size_modifier.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Revised</t>
-  </si>
-  <si>
     <t>Civ IC 2017</t>
   </si>
   <si>
@@ -79,39 +76,15 @@
     <t>India</t>
   </si>
   <si>
-    <t>ger</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>rus</t>
-  </si>
-  <si>
     <t>ino</t>
   </si>
   <si>
-    <t>ita</t>
-  </si>
-  <si>
-    <t>spa</t>
-  </si>
-  <si>
     <t>Poland</t>
   </si>
   <si>
-    <t>hol</t>
-  </si>
-  <si>
     <t>Iran</t>
   </si>
   <si>
-    <t>phi</t>
-  </si>
-  <si>
-    <t>sau</t>
-  </si>
-  <si>
     <t>saf</t>
   </si>
   <si>
@@ -251,6 +224,24 @@
   </si>
   <si>
     <t>Then remove mil IC from all useless nations once system is done</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Philipinnes</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
   </si>
 </sst>
 </file>
@@ -658,7 +649,7 @@
   <dimension ref="A1:T213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="14.25"/>
@@ -679,28 +670,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
       </c>
       <c r="J2">
         <v>0.01</v>
@@ -709,27 +700,30 @@
         <v>0.25</v>
       </c>
       <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
         <v>11</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>12</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>13</v>
-      </c>
-      <c r="T2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
       </c>
       <c r="C3">
         <v>210</v>
@@ -768,7 +762,7 @@
         <v>59.158904109589002</v>
       </c>
       <c r="O3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -788,13 +782,13 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4">
         <v>175</v>
-      </c>
-      <c r="C4">
-        <v>144</v>
       </c>
       <c r="D4">
         <v>27.789866074966302</v>
@@ -830,7 +824,7 @@
         <v>69.145205479452102</v>
       </c>
       <c r="O4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -850,7 +844,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>72</v>
@@ -906,7 +900,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>66</v>
@@ -962,7 +956,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>56</v>
@@ -1018,7 +1012,7 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="C8">
         <v>40</v>
@@ -1074,7 +1068,7 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>39</v>
@@ -1130,7 +1124,7 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>35</v>
@@ -1186,7 +1180,7 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C11">
         <v>30</v>
@@ -1242,7 +1236,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C12">
         <v>25</v>
@@ -1298,7 +1292,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>18</v>
@@ -1354,7 +1348,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C14">
         <v>15</v>
@@ -1410,7 +1404,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1466,7 +1460,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C16">
         <v>13</v>
@@ -1522,7 +1516,7 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="C17">
         <v>12</v>
@@ -1578,7 +1572,7 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>11</v>
@@ -1634,7 +1628,7 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>11</v>
@@ -1690,7 +1684,7 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>11</v>
@@ -1746,7 +1740,7 @@
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>11</v>
@@ -1802,7 +1796,7 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -1858,7 +1852,7 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -1914,7 +1908,7 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -1970,7 +1964,7 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -2026,7 +2020,7 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -2082,7 +2076,7 @@
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -2138,7 +2132,7 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -2194,7 +2188,7 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -2250,7 +2244,7 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -2306,7 +2300,7 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -2362,7 +2356,7 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -2418,7 +2412,7 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -2474,7 +2468,7 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -2530,7 +2524,7 @@
     </row>
     <row r="35" spans="1:20">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -2586,7 +2580,7 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -2642,7 +2636,7 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -2698,7 +2692,7 @@
     </row>
     <row r="38" spans="1:20">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -2754,7 +2748,7 @@
     </row>
     <row r="39" spans="1:20">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2810,7 +2804,7 @@
     </row>
     <row r="40" spans="1:20">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3070,7 +3064,7 @@
     </row>
     <row r="53" spans="1:20">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P53">
         <v>95</v>
@@ -3405,19 +3399,19 @@
     </row>
     <row r="81" spans="1:20">
       <c r="A81" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C81" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F81" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G81" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I81" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="S81">
         <v>78</v>
@@ -3428,7 +3422,7 @@
     </row>
     <row r="82" spans="1:20">
       <c r="A82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C82">
         <v>98</v>
@@ -3442,7 +3436,7 @@
     </row>
     <row r="83" spans="1:20">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C83">
         <v>52</v>
@@ -3456,7 +3450,7 @@
     </row>
     <row r="84" spans="1:20">
       <c r="A84" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C84">
         <v>51</v>
@@ -3470,7 +3464,7 @@
     </row>
     <row r="85" spans="1:20">
       <c r="A85" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C85">
         <v>26</v>
@@ -3484,7 +3478,7 @@
     </row>
     <row r="86" spans="1:20">
       <c r="A86" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C86">
         <v>24</v>
@@ -3498,7 +3492,7 @@
     </row>
     <row r="87" spans="1:20">
       <c r="A87" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C87">
         <v>26</v>
@@ -3512,7 +3506,7 @@
     </row>
     <row r="88" spans="1:20">
       <c r="A88" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C88">
         <v>18</v>
@@ -3526,7 +3520,7 @@
     </row>
     <row r="89" spans="1:20">
       <c r="A89" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C89">
         <v>10</v>
@@ -3540,7 +3534,7 @@
     </row>
     <row r="90" spans="1:20">
       <c r="A90" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C90">
         <v>20</v>
@@ -3554,7 +3548,7 @@
     </row>
     <row r="91" spans="1:20">
       <c r="A91" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C91">
         <v>16</v>
@@ -3568,7 +3562,7 @@
     </row>
     <row r="92" spans="1:20">
       <c r="A92" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C92">
         <v>7</v>
@@ -3582,7 +3576,7 @@
     </row>
     <row r="93" spans="1:20">
       <c r="A93" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -3596,7 +3590,7 @@
     </row>
     <row r="94" spans="1:20">
       <c r="A94" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C94">
         <v>12</v>
@@ -3610,7 +3604,7 @@
     </row>
     <row r="95" spans="1:20">
       <c r="A95" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C95">
         <v>15</v>
@@ -3624,7 +3618,7 @@
     </row>
     <row r="96" spans="1:20">
       <c r="A96" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C96">
         <v>7</v>
@@ -3638,7 +3632,7 @@
     </row>
     <row r="97" spans="1:20">
       <c r="A97" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C97">
         <v>8</v>
@@ -3652,7 +3646,7 @@
     </row>
     <row r="98" spans="1:20">
       <c r="A98" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C98">
         <v>6</v>
@@ -3666,7 +3660,7 @@
     </row>
     <row r="99" spans="1:20">
       <c r="A99" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C99">
         <v>9</v>
@@ -3680,7 +3674,7 @@
     </row>
     <row r="100" spans="1:20">
       <c r="A100" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C100">
         <v>9</v>
@@ -3694,7 +3688,7 @@
     </row>
     <row r="101" spans="1:20">
       <c r="A101" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -3708,7 +3702,7 @@
     </row>
     <row r="102" spans="1:20">
       <c r="A102" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -3722,7 +3716,7 @@
     </row>
     <row r="103" spans="1:20">
       <c r="A103" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="S103">
         <v>100</v>

--- a/Modding resources/mineral calculations/size_modifier.xlsx
+++ b/Modding resources/mineral calculations/size_modifier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
   <si>
     <t>Name</t>
   </si>
@@ -649,7 +649,7 @@
   <dimension ref="A1:T213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="14.25"/>
@@ -846,6 +846,9 @@
       <c r="A5" t="s">
         <v>18</v>
       </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
       <c r="C5">
         <v>72</v>
       </c>
@@ -902,6 +905,9 @@
       <c r="A6" t="s">
         <v>19</v>
       </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
       <c r="C6">
         <v>66</v>
       </c>
@@ -958,6 +964,9 @@
       <c r="A7" t="s">
         <v>53</v>
       </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
       <c r="C7">
         <v>56</v>
       </c>
@@ -1013,6 +1022,9 @@
     <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
       </c>
       <c r="C8">
         <v>40</v>

--- a/Modding resources/mineral calculations/size_modifier.xlsx
+++ b/Modding resources/mineral calculations/size_modifier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
   <si>
     <t>Name</t>
   </si>
@@ -649,7 +649,7 @@
   <dimension ref="A1:T213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="14.25"/>
@@ -1082,6 +1082,9 @@
       <c r="A9" t="s">
         <v>52</v>
       </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
       <c r="C9">
         <v>39</v>
       </c>
@@ -1193,6 +1196,9 @@
     <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
       </c>
       <c r="C11">
         <v>30</v>

--- a/Modding resources/mineral calculations/size_modifier.xlsx
+++ b/Modding resources/mineral calculations/size_modifier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
   <si>
     <t>Name</t>
   </si>
@@ -649,7 +649,7 @@
   <dimension ref="A1:T213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="14.25"/>
@@ -1256,6 +1256,9 @@
       <c r="A12" t="s">
         <v>57</v>
       </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
       <c r="C12">
         <v>25</v>
       </c>

--- a/Modding resources/mineral calculations/size_modifier.xlsx
+++ b/Modding resources/mineral calculations/size_modifier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -76,48 +76,18 @@
     <t>India</t>
   </si>
   <si>
-    <t>ino</t>
-  </si>
-  <si>
     <t>Poland</t>
   </si>
   <si>
     <t>Iran</t>
   </si>
   <si>
-    <t>saf</t>
-  </si>
-  <si>
-    <t>swe</t>
-  </si>
-  <si>
-    <t>rom</t>
-  </si>
-  <si>
-    <t>isr</t>
-  </si>
-  <si>
-    <t>pru</t>
-  </si>
-  <si>
-    <t>sing</t>
-  </si>
-  <si>
     <t>austria</t>
   </si>
   <si>
-    <t>alg</t>
-  </si>
-  <si>
     <t>ukr</t>
   </si>
   <si>
-    <t>mor</t>
-  </si>
-  <si>
-    <t>uae</t>
-  </si>
-  <si>
     <t>por</t>
   </si>
   <si>
@@ -242,6 +212,39 @@
   </si>
   <si>
     <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Singapur</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>United Arab</t>
   </si>
 </sst>
 </file>
@@ -338,7 +341,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A3:M40" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__0" displayName="__Anonymous_Sheet_DB__0" ref="A3:M41" headerRowCount="0" totalsRowShown="0">
   <sortState ref="A3:M40">
     <sortCondition descending="1" ref="B3:B40"/>
   </sortState>
@@ -646,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T213"/>
+  <dimension ref="A1:T214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="14.25"/>
@@ -670,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -723,7 +726,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C3">
         <v>210</v>
@@ -785,7 +788,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C4">
         <v>175</v>
@@ -847,7 +850,7 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <v>72</v>
@@ -906,7 +909,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>66</v>
@@ -962,10 +965,10 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C7">
         <v>56</v>
@@ -1021,10 +1024,10 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C8">
         <v>40</v>
@@ -1080,1201 +1083,1168 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9">
-        <v>39</v>
-      </c>
-      <c r="D9">
-        <v>22.236923076923102</v>
+        <v>44</v>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F9">
-        <v>1452</v>
-      </c>
-      <c r="G9">
-        <v>2119.92</v>
-      </c>
-      <c r="H9">
-        <v>0.57017751479289902</v>
-      </c>
-      <c r="I9">
-        <v>3718</v>
-      </c>
-      <c r="J9">
-        <v>0.10186301369863</v>
-      </c>
-      <c r="K9">
-        <v>2.5465753424657498</v>
-      </c>
-      <c r="L9">
-        <v>95.3333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.261187214611872</v>
-      </c>
-      <c r="N9">
-        <v>10.186301369862999</v>
-      </c>
-      <c r="P9">
-        <v>6</v>
-      </c>
-      <c r="Q9">
-        <v>0.74</v>
-      </c>
-      <c r="R9">
-        <v>67.525000000000006</v>
-      </c>
-      <c r="S9">
-        <v>6</v>
-      </c>
-      <c r="T9">
-        <v>0.74</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D10">
-        <v>13.0009127210496</v>
+        <v>22.236923076923102</v>
       </c>
       <c r="E10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F10">
-        <v>892</v>
+        <v>1452</v>
       </c>
       <c r="G10">
-        <v>1302.32</v>
+        <v>2119.92</v>
       </c>
       <c r="H10">
-        <v>0.37145464917284698</v>
+        <v>0.57017751479289902</v>
       </c>
       <c r="I10">
-        <v>3506</v>
+        <v>3718</v>
       </c>
       <c r="J10">
-        <v>9.6054794520547895E-2</v>
+        <v>0.10186301369863</v>
       </c>
       <c r="K10">
-        <v>2.4013698630136999</v>
+        <v>2.5465753424657498</v>
       </c>
       <c r="L10">
-        <v>100.171428571429</v>
+        <v>95.3333333333333</v>
       </c>
       <c r="M10">
-        <v>0.27444227005870803</v>
+        <v>0.261187214611872</v>
       </c>
       <c r="N10">
-        <v>9.6054794520547908</v>
+        <v>10.186301369862999</v>
       </c>
       <c r="P10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q10">
-        <v>0.96</v>
+        <v>0.74</v>
       </c>
       <c r="R10">
-        <v>87.6</v>
+        <v>67.525000000000006</v>
       </c>
       <c r="S10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T10">
-        <v>0.96</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>28.409809725158599</v>
+        <v>13.0009127210496</v>
       </c>
       <c r="E11">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F11">
-        <v>1534</v>
+        <v>892</v>
       </c>
       <c r="G11">
-        <v>2239.64</v>
+        <v>1302.32</v>
       </c>
       <c r="H11">
-        <v>0.94699365750528497</v>
+        <v>0.37145464917284698</v>
       </c>
       <c r="I11">
-        <v>2365</v>
+        <v>3506</v>
       </c>
       <c r="J11">
-        <v>6.4794520547945197E-2</v>
+        <v>9.6054794520547895E-2</v>
       </c>
       <c r="K11">
-        <v>1.6198630136986301</v>
+        <v>2.4013698630136999</v>
       </c>
       <c r="L11">
-        <v>78.8333333333333</v>
+        <v>100.171428571429</v>
       </c>
       <c r="M11">
-        <v>0.215981735159817</v>
+        <v>0.27444227005870803</v>
       </c>
       <c r="N11">
-        <v>6.4794520547945202</v>
+        <v>9.6054794520547908</v>
       </c>
       <c r="P11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q11">
-        <v>1.18</v>
+        <v>0.96</v>
       </c>
       <c r="R11">
-        <v>107.675</v>
+        <v>87.6</v>
       </c>
       <c r="S11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T11">
-        <v>1.18</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>18.011697497279702</v>
+        <v>28.409809725158599</v>
       </c>
       <c r="E12">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F12">
-        <v>907</v>
+        <v>1534</v>
       </c>
       <c r="G12">
-        <v>1324.22</v>
+        <v>2239.64</v>
       </c>
       <c r="H12">
-        <v>0.72046789989118598</v>
+        <v>0.94699365750528497</v>
       </c>
       <c r="I12">
-        <v>1838</v>
+        <v>2365</v>
       </c>
       <c r="J12">
-        <v>5.0356164383561601E-2</v>
+        <v>6.4794520547945197E-2</v>
       </c>
       <c r="K12">
-        <v>1.2589041095890401</v>
+        <v>1.6198630136986301</v>
       </c>
       <c r="L12">
-        <v>73.52</v>
+        <v>78.8333333333333</v>
       </c>
       <c r="M12">
-        <v>0.20142465753424699</v>
+        <v>0.215981735159817</v>
       </c>
       <c r="N12">
-        <v>5.0356164383561604</v>
+        <v>6.4794520547945202</v>
       </c>
       <c r="P12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q12">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="R12">
-        <v>127.75</v>
+        <v>107.675</v>
       </c>
       <c r="S12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T12">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
       </c>
       <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>18.011697497279702</v>
+      </c>
+      <c r="E13">
         <v>18</v>
       </c>
-      <c r="D13">
-        <v>9.3664615384615395</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
       <c r="F13">
-        <v>417</v>
+        <v>907</v>
       </c>
       <c r="G13">
-        <v>608.82000000000005</v>
+        <v>1324.22</v>
       </c>
       <c r="H13">
-        <v>0.52035897435897405</v>
+        <v>0.72046789989118598</v>
       </c>
       <c r="I13">
-        <v>1170</v>
+        <v>1838</v>
       </c>
       <c r="J13">
-        <v>3.2054794520547901E-2</v>
+        <v>5.0356164383561601E-2</v>
       </c>
       <c r="K13">
-        <v>0.80136986301369895</v>
+        <v>1.2589041095890401</v>
       </c>
       <c r="L13">
-        <v>65</v>
+        <v>73.52</v>
       </c>
       <c r="M13">
-        <v>0.17808219178082199</v>
+        <v>0.20142465753424699</v>
       </c>
       <c r="N13">
-        <v>3.20547945205479</v>
+        <v>5.0356164383561604</v>
       </c>
       <c r="P13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q13">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="R13">
-        <v>147.82499999999999</v>
+        <v>127.75</v>
       </c>
       <c r="S13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T13">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>11.494603174603199</v>
+        <v>9.3664615384615395</v>
       </c>
       <c r="E14">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>496</v>
+        <v>417</v>
       </c>
       <c r="G14">
-        <v>724.16</v>
+        <v>608.82000000000005</v>
       </c>
       <c r="H14">
-        <v>0.76630687830687805</v>
+        <v>0.52035897435897405</v>
       </c>
       <c r="I14">
-        <v>945</v>
+        <v>1170</v>
       </c>
       <c r="J14">
-        <v>2.5890410958904101E-2</v>
+        <v>3.2054794520547901E-2</v>
       </c>
       <c r="K14">
-        <v>0.647260273972603</v>
+        <v>0.80136986301369895</v>
       </c>
       <c r="L14">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M14">
-        <v>0.17260273972602699</v>
+        <v>0.17808219178082199</v>
       </c>
       <c r="N14">
-        <v>2.5890410958904102</v>
+        <v>3.20547945205479</v>
       </c>
       <c r="P14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q14">
-        <v>1.84</v>
+        <v>1.62</v>
       </c>
       <c r="R14">
-        <v>167.9</v>
+        <v>147.82499999999999</v>
       </c>
       <c r="S14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T14">
-        <v>1.84</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>7.1371846435100501</v>
+        <v>11.494603174603199</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F15">
-        <v>573</v>
+        <v>496</v>
       </c>
       <c r="G15">
-        <v>836.58</v>
+        <v>724.16</v>
       </c>
       <c r="H15">
-        <v>0.50979890310786102</v>
+        <v>0.76630687830687805</v>
       </c>
       <c r="I15">
-        <v>1641</v>
+        <v>945</v>
       </c>
       <c r="J15">
-        <v>4.4958904109588999E-2</v>
+        <v>2.5890410958904101E-2</v>
       </c>
       <c r="K15">
-        <v>1.1239726027397301</v>
+        <v>0.647260273972603</v>
       </c>
       <c r="L15">
-        <v>117.21428571428601</v>
+        <v>63</v>
       </c>
       <c r="M15">
-        <v>0.32113502935420701</v>
+        <v>0.17260273972602699</v>
       </c>
       <c r="N15">
-        <v>4.4958904109589</v>
+        <v>2.5890410958904102</v>
       </c>
       <c r="P15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q15">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="R15">
-        <v>187.97499999999999</v>
+        <v>167.9</v>
       </c>
       <c r="S15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T15">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>4.6921175278622096</v>
+        <v>7.1371846435100501</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F16">
-        <v>244</v>
+        <v>573</v>
       </c>
       <c r="G16">
-        <v>356.24</v>
+        <v>836.58</v>
       </c>
       <c r="H16">
-        <v>0.36093211752786197</v>
-      </c>
-      <c r="I16" s="2">
-        <v>987</v>
+        <v>0.50979890310786102</v>
+      </c>
+      <c r="I16">
+        <v>1641</v>
       </c>
       <c r="J16">
-        <v>2.7041095890411E-2</v>
+        <v>4.4958904109588999E-2</v>
       </c>
       <c r="K16">
-        <v>0.67602739726027405</v>
+        <v>1.1239726027397301</v>
       </c>
       <c r="L16">
-        <v>75.923076923076906</v>
+        <v>117.21428571428601</v>
       </c>
       <c r="M16">
-        <v>0.208008429926238</v>
+        <v>0.32113502935420701</v>
       </c>
       <c r="N16">
-        <v>2.7041095890411002</v>
+        <v>4.4958904109589</v>
       </c>
       <c r="P16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q16">
-        <v>2.2799999999999998</v>
+        <v>2.06</v>
       </c>
       <c r="R16">
-        <v>208.05</v>
+        <v>187.97499999999999</v>
       </c>
       <c r="S16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T16">
-        <v>2.2799999999999998</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>6.00790381599582</v>
+        <v>4.6921175278622096</v>
       </c>
       <c r="E17">
         <v>5</v>
       </c>
       <c r="F17">
-        <v>656</v>
+        <v>244</v>
       </c>
       <c r="G17">
-        <v>957.76</v>
+        <v>356.24</v>
       </c>
       <c r="H17">
-        <v>0.50065865133298504</v>
-      </c>
-      <c r="I17">
-        <v>1913</v>
+        <v>0.36093211752786197</v>
+      </c>
+      <c r="I17" s="2">
+        <v>987</v>
       </c>
       <c r="J17">
-        <v>5.24109589041096E-2</v>
+        <v>2.7041095890411E-2</v>
       </c>
       <c r="K17">
-        <v>1.3102739726027399</v>
+        <v>0.67602739726027405</v>
       </c>
       <c r="L17">
-        <v>159.416666666667</v>
+        <v>75.923076923076906</v>
       </c>
       <c r="M17">
-        <v>0.43675799086757999</v>
+        <v>0.208008429926238</v>
       </c>
       <c r="N17">
-        <v>5.2410958904109597</v>
+        <v>2.7041095890411002</v>
       </c>
       <c r="P17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q17">
-        <v>2.5</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="R17">
-        <v>228.125</v>
+        <v>208.05</v>
       </c>
       <c r="S17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T17">
-        <v>2.5</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>6.5783059418457599</v>
+        <v>6.00790381599582</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>324</v>
+        <v>656</v>
       </c>
       <c r="G18">
-        <v>473.04</v>
+        <v>957.76</v>
       </c>
       <c r="H18">
-        <v>0.59802781289506901</v>
-      </c>
-      <c r="I18" s="2">
-        <v>791</v>
+        <v>0.50065865133298504</v>
+      </c>
+      <c r="I18">
+        <v>1913</v>
       </c>
       <c r="J18">
-        <v>2.1671232876712299E-2</v>
+        <v>5.24109589041096E-2</v>
       </c>
       <c r="K18">
-        <v>0.54178082191780796</v>
+        <v>1.3102739726027399</v>
       </c>
       <c r="L18">
-        <v>71.909090909090907</v>
+        <v>159.416666666667</v>
       </c>
       <c r="M18">
-        <v>0.19701120797011201</v>
+        <v>0.43675799086757999</v>
       </c>
       <c r="N18">
-        <v>2.1671232876712301</v>
+        <v>5.2410958904109597</v>
       </c>
       <c r="P18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q18">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
       <c r="R18">
-        <v>248.2</v>
+        <v>228.125</v>
       </c>
       <c r="S18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T18">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C19">
         <v>11</v>
       </c>
       <c r="D19">
-        <v>7.3356766917293204</v>
+        <v>6.5783059418457599</v>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19">
-        <v>243</v>
+        <v>324</v>
       </c>
       <c r="G19">
-        <v>354.78</v>
+        <v>473.04</v>
       </c>
       <c r="H19">
-        <v>0.66687969924811996</v>
-      </c>
-      <c r="I19">
-        <v>532</v>
+        <v>0.59802781289506901</v>
+      </c>
+      <c r="I19" s="2">
+        <v>791</v>
       </c>
       <c r="J19">
-        <v>1.4575342465753399E-2</v>
+        <v>2.1671232876712299E-2</v>
       </c>
       <c r="K19">
-        <v>0.36438356164383601</v>
+        <v>0.54178082191780796</v>
       </c>
       <c r="L19">
-        <v>48.363636363636402</v>
+        <v>71.909090909090907</v>
       </c>
       <c r="M19">
-        <v>0.13250311332503101</v>
+        <v>0.19701120797011201</v>
       </c>
       <c r="N19">
-        <v>1.45753424657534</v>
+        <v>2.1671232876712301</v>
       </c>
       <c r="P19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q19">
-        <v>2.94</v>
+        <v>2.72</v>
       </c>
       <c r="R19">
-        <v>268.27499999999998</v>
+        <v>248.2</v>
       </c>
       <c r="S19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T19">
-        <v>2.94</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C20">
         <v>11</v>
       </c>
       <c r="D20">
-        <v>5.4933601609657901</v>
+        <v>7.3356766917293204</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F20">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="G20">
-        <v>248.2</v>
+        <v>354.78</v>
       </c>
       <c r="H20">
-        <v>0.49939637826961802</v>
-      </c>
-      <c r="I20" s="2">
-        <v>497</v>
+        <v>0.66687969924811996</v>
+      </c>
+      <c r="I20">
+        <v>532</v>
       </c>
       <c r="J20">
-        <v>1.36164383561644E-2</v>
+        <v>1.4575342465753399E-2</v>
       </c>
       <c r="K20">
-        <v>0.34041095890410999</v>
+        <v>0.36438356164383601</v>
       </c>
       <c r="L20">
-        <v>45.181818181818201</v>
+        <v>48.363636363636402</v>
       </c>
       <c r="M20">
-        <v>0.123785803237858</v>
+        <v>0.13250311332503101</v>
       </c>
       <c r="N20">
-        <v>1.36164383561644</v>
+        <v>1.45753424657534</v>
       </c>
       <c r="P20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q20">
-        <v>3.16</v>
+        <v>2.94</v>
       </c>
       <c r="R20">
-        <v>288.35000000000002</v>
+        <v>268.27499999999998</v>
       </c>
       <c r="S20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T20">
-        <v>3.16</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="C21">
         <v>11</v>
       </c>
       <c r="D21">
-        <v>5.6596987951807201</v>
+        <v>5.4933601609657901</v>
       </c>
       <c r="E21">
         <v>6</v>
       </c>
       <c r="F21">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="G21">
-        <v>170.82</v>
+        <v>248.2</v>
       </c>
       <c r="H21">
-        <v>0.51451807228915702</v>
+        <v>0.49939637826961802</v>
       </c>
       <c r="I21" s="2">
-        <v>332</v>
+        <v>497</v>
       </c>
       <c r="J21">
-        <v>9.0958904109589098E-3</v>
+        <v>1.36164383561644E-2</v>
       </c>
       <c r="K21">
-        <v>0.227397260273973</v>
+        <v>0.34041095890410999</v>
       </c>
       <c r="L21">
-        <v>30.181818181818201</v>
+        <v>45.181818181818201</v>
       </c>
       <c r="M21">
-        <v>8.2689912826899095E-2</v>
+        <v>0.123785803237858</v>
       </c>
       <c r="N21">
-        <v>0.90958904109589001</v>
+        <v>1.36164383561644</v>
       </c>
       <c r="P21">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q21">
-        <v>3.38</v>
+        <v>3.16</v>
       </c>
       <c r="R21">
-        <v>308.42500000000001</v>
+        <v>288.35000000000002</v>
       </c>
       <c r="S21">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T21">
-        <v>3.38</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>3.6098901098901099</v>
+        <v>5.6596987951807201</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F22">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G22">
-        <v>182.5</v>
+        <v>170.82</v>
       </c>
       <c r="H22">
-        <v>0.40109890109890101</v>
+        <v>0.51451807228915702</v>
       </c>
       <c r="I22" s="2">
-        <v>455</v>
+        <v>332</v>
       </c>
       <c r="J22">
-        <v>1.24657534246575E-2</v>
+        <v>9.0958904109589098E-3</v>
       </c>
       <c r="K22">
-        <v>0.31164383561643799</v>
+        <v>0.227397260273973</v>
       </c>
       <c r="L22">
-        <v>50.5555555555556</v>
+        <v>30.181818181818201</v>
       </c>
       <c r="M22">
-        <v>0.13850837138508401</v>
+        <v>8.2689912826899095E-2</v>
       </c>
       <c r="N22">
-        <v>1.24657534246575</v>
+        <v>0.90958904109589001</v>
       </c>
       <c r="P22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q22">
-        <v>3.6</v>
+        <v>3.38</v>
       </c>
       <c r="R22">
-        <v>328.5</v>
+        <v>308.42500000000001</v>
       </c>
       <c r="S22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T22">
-        <v>3.6</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>3.2071243042671602</v>
+        <v>3.6098901098901099</v>
       </c>
       <c r="E23">
         <v>4</v>
       </c>
       <c r="F23">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="G23">
-        <v>216.08</v>
+        <v>182.5</v>
       </c>
       <c r="H23">
-        <v>0.40089053803339503</v>
+        <v>0.40109890109890101</v>
       </c>
       <c r="I23" s="2">
-        <v>539</v>
+        <v>455</v>
       </c>
       <c r="J23">
-        <v>1.4767123287671199E-2</v>
+        <v>1.24657534246575E-2</v>
       </c>
       <c r="K23">
-        <v>0.369178082191781</v>
+        <v>0.31164383561643799</v>
       </c>
       <c r="L23">
-        <v>67.375</v>
+        <v>50.5555555555556</v>
       </c>
       <c r="M23">
-        <v>0.18458904109589</v>
+        <v>0.13850837138508401</v>
       </c>
       <c r="N23">
-        <v>1.47671232876712</v>
+        <v>1.24657534246575</v>
       </c>
       <c r="P23">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q23">
-        <v>3.82</v>
+        <v>3.6</v>
       </c>
       <c r="R23">
-        <v>348.57499999999999</v>
+        <v>328.5</v>
       </c>
       <c r="S23">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T23">
-        <v>3.82</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="C24">
         <v>8</v>
       </c>
       <c r="D24">
-        <v>6.0882326621923903</v>
+        <v>3.2071243042671602</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F24">
-        <v>233</v>
+        <v>148</v>
       </c>
       <c r="G24">
-        <v>340.18</v>
+        <v>216.08</v>
       </c>
       <c r="H24">
-        <v>0.76102908277404901</v>
+        <v>0.40089053803339503</v>
       </c>
       <c r="I24" s="2">
-        <v>447</v>
+        <v>539</v>
       </c>
       <c r="J24">
-        <v>1.22465753424658E-2</v>
+        <v>1.4767123287671199E-2</v>
       </c>
       <c r="K24">
-        <v>0.30616438356164399</v>
+        <v>0.369178082191781</v>
       </c>
       <c r="L24">
-        <v>55.875</v>
+        <v>67.375</v>
       </c>
       <c r="M24">
-        <v>0.153082191780822</v>
+        <v>0.18458904109589</v>
       </c>
       <c r="N24">
-        <v>1.22465753424658</v>
+        <v>1.47671232876712</v>
       </c>
       <c r="P24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q24">
-        <v>4.04</v>
+        <v>3.82</v>
       </c>
       <c r="R24">
-        <v>368.65</v>
+        <v>348.57499999999999</v>
       </c>
       <c r="S24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T24">
-        <v>4.04</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>3.69359877488515</v>
+        <v>6.0882326621923903</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F25">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G25">
-        <v>344.56</v>
+        <v>340.18</v>
       </c>
       <c r="H25">
-        <v>0.52765696784073501</v>
+        <v>0.76102908277404901</v>
       </c>
       <c r="I25" s="2">
-        <v>653</v>
+        <v>447</v>
       </c>
       <c r="J25">
-        <v>1.7890410958904101E-2</v>
+        <v>1.22465753424658E-2</v>
       </c>
       <c r="K25">
-        <v>0.44726027397260298</v>
+        <v>0.30616438356164399</v>
       </c>
       <c r="L25">
-        <v>93.285714285714306</v>
+        <v>55.875</v>
       </c>
       <c r="M25">
-        <v>0.25557729941291601</v>
+        <v>0.153082191780822</v>
       </c>
       <c r="N25">
-        <v>1.7890410958904099</v>
+        <v>1.22465753424658</v>
       </c>
       <c r="P25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q25">
-        <v>4.26</v>
+        <v>4.04</v>
       </c>
       <c r="R25">
-        <v>388.72500000000002</v>
+        <v>368.65</v>
       </c>
       <c r="S25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T25">
-        <v>4.26</v>
+        <v>4.04</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C26">
         <v>7</v>
       </c>
       <c r="D26">
-        <v>4.6885567010309304</v>
+        <v>3.69359877488515</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F26">
-        <v>178</v>
+        <v>236</v>
       </c>
       <c r="G26">
-        <v>259.88</v>
+        <v>344.56</v>
       </c>
       <c r="H26">
-        <v>0.66979381443299002</v>
+        <v>0.52765696784073501</v>
       </c>
       <c r="I26" s="2">
-        <v>388</v>
+        <v>653</v>
       </c>
       <c r="J26">
-        <v>1.06301369863014E-2</v>
+        <v>1.7890410958904101E-2</v>
       </c>
       <c r="K26">
-        <v>0.26575342465753399</v>
+        <v>0.44726027397260298</v>
       </c>
       <c r="L26">
-        <v>55.428571428571402</v>
+        <v>93.285714285714306</v>
       </c>
       <c r="M26">
-        <v>0.15185909980430501</v>
+        <v>0.25557729941291601</v>
       </c>
       <c r="N26">
-        <v>1.0630136986301399</v>
+        <v>1.7890410958904099</v>
       </c>
       <c r="P26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q26">
-        <v>4.4800000000000004</v>
+        <v>4.26</v>
       </c>
       <c r="R26">
-        <v>408.8</v>
+        <v>388.72500000000002</v>
       </c>
       <c r="S26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T26">
-        <v>4.4800000000000004</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C27">
         <v>7</v>
       </c>
       <c r="D27">
-        <v>3.1717241379310299</v>
+        <v>4.6885567010309304</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F27">
-        <v>99</v>
+        <v>178</v>
       </c>
       <c r="G27">
-        <v>144.54</v>
+        <v>259.88</v>
       </c>
       <c r="H27">
-        <v>0.45310344827586202</v>
+        <v>0.66979381443299002</v>
       </c>
       <c r="I27" s="2">
-        <v>319</v>
+        <v>388</v>
       </c>
       <c r="J27">
-        <v>8.7397260273972596E-3</v>
+        <v>1.06301369863014E-2</v>
       </c>
       <c r="K27">
-        <v>0.218493150684931</v>
+        <v>0.26575342465753399</v>
       </c>
       <c r="L27">
-        <v>45.571428571428598</v>
+        <v>55.428571428571402</v>
       </c>
       <c r="M27">
-        <v>0.124853228962818</v>
+        <v>0.15185909980430501</v>
       </c>
       <c r="N27">
-        <v>0.87397260273972599</v>
+        <v>1.0630136986301399</v>
       </c>
       <c r="P27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q27">
-        <v>4.7</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="R27">
-        <v>428.875</v>
+        <v>408.8</v>
       </c>
       <c r="S27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T27">
-        <v>4.7</v>
+        <v>4.4800000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>2.65275908479139</v>
+        <v>3.1717241379310299</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>225</v>
+        <v>99</v>
       </c>
       <c r="G28">
-        <v>328.5</v>
+        <v>144.54</v>
       </c>
       <c r="H28">
-        <v>0.44212651413189802</v>
-      </c>
-      <c r="I28">
-        <v>743</v>
+        <v>0.45310344827586202</v>
+      </c>
+      <c r="I28" s="2">
+        <v>319</v>
       </c>
       <c r="J28">
-        <v>2.0356164383561599E-2</v>
+        <v>8.7397260273972596E-3</v>
       </c>
       <c r="K28">
-        <v>0.50890410958904098</v>
+        <v>0.218493150684931</v>
       </c>
       <c r="L28">
-        <v>123.833333333333</v>
+        <v>45.571428571428598</v>
       </c>
       <c r="M28">
-        <v>0.33926940639269398</v>
+        <v>0.124853228962818</v>
       </c>
       <c r="N28">
-        <v>2.0356164383561599</v>
+        <v>0.87397260273972599</v>
       </c>
       <c r="P28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q28">
-        <v>4.92</v>
+        <v>4.7</v>
       </c>
       <c r="R28">
-        <v>448.95</v>
+        <v>428.875</v>
       </c>
       <c r="S28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T28">
-        <v>4.92</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="C29">
         <v>6</v>
       </c>
       <c r="D29">
-        <v>5.3865838509316797</v>
+        <v>2.65275908479139</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="G29">
-        <v>289.08</v>
+        <v>328.5</v>
       </c>
       <c r="H29">
-        <v>0.89776397515527995</v>
-      </c>
-      <c r="I29" s="2">
-        <v>322</v>
+        <v>0.44212651413189802</v>
+      </c>
+      <c r="I29">
+        <v>743</v>
       </c>
       <c r="J29">
-        <v>8.8219178082191794E-3</v>
+        <v>2.0356164383561599E-2</v>
       </c>
       <c r="K29">
-        <v>0.22054794520547899</v>
+        <v>0.50890410958904098</v>
       </c>
       <c r="L29">
-        <v>53.6666666666667</v>
+        <v>123.833333333333</v>
       </c>
       <c r="M29">
-        <v>0.14703196347031999</v>
+        <v>0.33926940639269398</v>
       </c>
       <c r="N29">
-        <v>0.88219178082191796</v>
+        <v>2.0356164383561599</v>
       </c>
       <c r="P29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q29">
-        <v>5.14</v>
+        <v>4.92</v>
       </c>
       <c r="R29">
-        <v>469.02499999999998</v>
+        <v>448.95</v>
       </c>
       <c r="S29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T29">
-        <v>5.14</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C30">
         <v>6</v>
       </c>
       <c r="D30">
-        <v>4.45881748071979</v>
+        <v>5.3865838509316797</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F30">
         <v>198</v>
@@ -2283,2346 +2253,2402 @@
         <v>289.08</v>
       </c>
       <c r="H30">
-        <v>0.74313624678663204</v>
-      </c>
-      <c r="I30">
-        <v>389</v>
+        <v>0.89776397515527995</v>
+      </c>
+      <c r="I30" s="2">
+        <v>322</v>
       </c>
       <c r="J30">
-        <v>1.06575342465753E-2</v>
+        <v>8.8219178082191794E-3</v>
       </c>
       <c r="K30">
-        <v>0.26643835616438399</v>
+        <v>0.22054794520547899</v>
       </c>
       <c r="L30">
-        <v>64.8333333333333</v>
+        <v>53.6666666666667</v>
       </c>
       <c r="M30">
-        <v>0.17762557077625599</v>
+        <v>0.14703196347031999</v>
       </c>
       <c r="N30">
-        <v>1.06575342465753</v>
+        <v>0.88219178082191796</v>
       </c>
       <c r="P30">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q30">
-        <v>5.36</v>
+        <v>5.14</v>
       </c>
       <c r="R30">
-        <v>489.1</v>
+        <v>469.02499999999998</v>
       </c>
       <c r="S30">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T30">
-        <v>5.36</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C31">
         <v>6</v>
       </c>
       <c r="D31">
-        <v>4.97519163763066</v>
+        <v>4.45881748071979</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="G31">
-        <v>237.98</v>
+        <v>289.08</v>
       </c>
       <c r="H31">
-        <v>0.82919860627177699</v>
+        <v>0.74313624678663204</v>
       </c>
       <c r="I31">
-        <v>287</v>
+        <v>389</v>
       </c>
       <c r="J31">
-        <v>7.8630136986301401E-3</v>
+        <v>1.06575342465753E-2</v>
       </c>
       <c r="K31">
-        <v>0.19657534246575301</v>
+        <v>0.26643835616438399</v>
       </c>
       <c r="L31">
-        <v>47.8333333333333</v>
+        <v>64.8333333333333</v>
       </c>
       <c r="M31">
-        <v>0.131050228310502</v>
+        <v>0.17762557077625599</v>
       </c>
       <c r="N31">
-        <v>0.78630136986301402</v>
+        <v>1.06575342465753</v>
       </c>
       <c r="P31">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q31">
-        <v>5.58</v>
+        <v>5.36</v>
       </c>
       <c r="R31">
-        <v>509.17500000000001</v>
+        <v>489.1</v>
       </c>
       <c r="S31">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T31">
-        <v>5.58</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C32">
         <v>6</v>
       </c>
       <c r="D32">
-        <v>1.2155023923445001</v>
+        <v>4.97519163763066</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F32">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="G32">
-        <v>42.34</v>
+        <v>237.98</v>
       </c>
       <c r="H32">
-        <v>0.202583732057416</v>
+        <v>0.82919860627177699</v>
       </c>
       <c r="I32">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="J32">
-        <v>5.7260273972602697E-3</v>
+        <v>7.8630136986301401E-3</v>
       </c>
       <c r="K32">
-        <v>0.14315068493150701</v>
+        <v>0.19657534246575301</v>
       </c>
       <c r="L32">
-        <v>34.8333333333333</v>
+        <v>47.8333333333333</v>
       </c>
       <c r="M32">
-        <v>9.5433789954337905E-2</v>
+        <v>0.131050228310502</v>
       </c>
       <c r="N32">
-        <v>0.57260273972602704</v>
+        <v>0.78630136986301402</v>
       </c>
       <c r="P32">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q32">
-        <v>5.8</v>
+        <v>5.58</v>
       </c>
       <c r="R32">
-        <v>529.25</v>
+        <v>509.17500000000001</v>
       </c>
       <c r="S32">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T32">
-        <v>5.8</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>1.6504347826087</v>
+        <v>1.2155023923445001</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G33">
-        <v>75.92</v>
+        <v>42.34</v>
       </c>
       <c r="H33">
-        <v>0.41260869565217401</v>
+        <v>0.202583732057416</v>
       </c>
       <c r="I33">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="J33">
-        <v>5.04109589041096E-3</v>
+        <v>5.7260273972602697E-3</v>
       </c>
       <c r="K33">
-        <v>0.12602739726027401</v>
+        <v>0.14315068493150701</v>
       </c>
       <c r="L33">
-        <v>46</v>
+        <v>34.8333333333333</v>
       </c>
       <c r="M33">
-        <v>0.12602739726027401</v>
+        <v>9.5433789954337905E-2</v>
       </c>
       <c r="N33">
-        <v>0.50410958904109604</v>
+        <v>0.57260273972602704</v>
       </c>
       <c r="P33">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q33">
-        <v>6.02</v>
+        <v>5.8</v>
       </c>
       <c r="R33">
-        <v>549.32500000000005</v>
+        <v>529.25</v>
       </c>
       <c r="S33">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T33">
-        <v>6.02</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>4</v>
       </c>
       <c r="D34">
-        <v>1.21393258426966</v>
+        <v>1.6504347826087</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G34">
-        <v>54.02</v>
+        <v>75.92</v>
       </c>
       <c r="H34">
-        <v>0.303483146067416</v>
-      </c>
-      <c r="I34" s="2">
-        <v>178</v>
+        <v>0.41260869565217401</v>
+      </c>
+      <c r="I34">
+        <v>184</v>
       </c>
       <c r="J34">
-        <v>4.8767123287671204E-3</v>
+        <v>5.04109589041096E-3</v>
       </c>
       <c r="K34">
-        <v>0.121917808219178</v>
+        <v>0.12602739726027401</v>
       </c>
       <c r="L34">
-        <v>44.5</v>
+        <v>46</v>
       </c>
       <c r="M34">
-        <v>0.121917808219178</v>
+        <v>0.12602739726027401</v>
       </c>
       <c r="N34">
-        <v>0.48767123287671199</v>
+        <v>0.50410958904109604</v>
       </c>
       <c r="P34">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q34">
-        <v>6.24</v>
+        <v>6.02</v>
       </c>
       <c r="R34">
-        <v>569.4</v>
+        <v>549.32500000000005</v>
       </c>
       <c r="S34">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T34">
-        <v>6.24</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C35">
         <v>4</v>
       </c>
       <c r="D35">
-        <v>2.4645871559632999</v>
+        <v>1.21393258426966</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G35">
-        <v>67.16</v>
+        <v>54.02</v>
       </c>
       <c r="H35">
-        <v>0.61614678899082598</v>
-      </c>
-      <c r="I35">
-        <v>109</v>
+        <v>0.303483146067416</v>
+      </c>
+      <c r="I35" s="2">
+        <v>178</v>
       </c>
       <c r="J35">
-        <v>2.9863013698630098E-3</v>
+        <v>4.8767123287671204E-3</v>
       </c>
       <c r="K35">
-        <v>7.4657534246575299E-2</v>
+        <v>0.121917808219178</v>
       </c>
       <c r="L35">
-        <v>27.25</v>
+        <v>44.5</v>
       </c>
       <c r="M35">
-        <v>7.4657534246575299E-2</v>
+        <v>0.121917808219178</v>
       </c>
       <c r="N35">
-        <v>0.29863013698630098</v>
+        <v>0.48767123287671199</v>
       </c>
       <c r="P35">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q35">
-        <v>6.46</v>
+        <v>6.24</v>
       </c>
       <c r="R35">
-        <v>589.47500000000002</v>
+        <v>569.4</v>
       </c>
       <c r="S35">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T35">
-        <v>6.46</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>2.4645871559632999</v>
+      </c>
+      <c r="E36">
         <v>3</v>
       </c>
-      <c r="D36">
-        <v>0.92909090909090897</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
       <c r="F36">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="G36">
-        <v>30.66</v>
+        <v>67.16</v>
       </c>
       <c r="H36">
-        <v>0.30969696969697003</v>
+        <v>0.61614678899082598</v>
       </c>
       <c r="I36">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J36">
-        <v>2.7123287671232902E-3</v>
+        <v>2.9863013698630098E-3</v>
       </c>
       <c r="K36">
-        <v>6.7808219178082205E-2</v>
+        <v>7.4657534246575299E-2</v>
       </c>
       <c r="L36">
-        <v>33</v>
+        <v>27.25</v>
       </c>
       <c r="M36">
-        <v>9.0410958904109606E-2</v>
+        <v>7.4657534246575299E-2</v>
       </c>
       <c r="N36">
-        <v>0.27123287671232899</v>
+        <v>0.29863013698630098</v>
       </c>
       <c r="P36">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q36">
-        <v>6.68</v>
+        <v>6.46</v>
       </c>
       <c r="R36">
-        <v>609.54999999999995</v>
+        <v>589.47500000000002</v>
       </c>
       <c r="S36">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T36">
-        <v>6.68</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>0.92585365853658497</v>
+        <v>0.92909090909090897</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="G37">
-        <v>18.98</v>
+        <v>30.66</v>
       </c>
       <c r="H37">
-        <v>0.46292682926829298</v>
+        <v>0.30969696969697003</v>
       </c>
       <c r="I37">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="J37">
-        <v>1.12328767123288E-3</v>
+        <v>2.7123287671232902E-3</v>
       </c>
       <c r="K37">
-        <v>2.80821917808219E-2</v>
+        <v>6.7808219178082205E-2</v>
       </c>
       <c r="L37">
-        <v>20.5</v>
+        <v>33</v>
       </c>
       <c r="M37">
-        <v>5.6164383561643799E-2</v>
+        <v>9.0410958904109606E-2</v>
       </c>
       <c r="N37">
-        <v>0.112328767123288</v>
+        <v>0.27123287671232899</v>
       </c>
       <c r="P37">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q37">
-        <v>6.9</v>
+        <v>6.68</v>
       </c>
       <c r="R37">
-        <v>629.625</v>
+        <v>609.54999999999995</v>
       </c>
       <c r="S37">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T37">
-        <v>6.9</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38">
-        <v>1.04285714285714</v>
+        <v>0.92585365853658497</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G38">
-        <v>21.9</v>
+        <v>18.98</v>
       </c>
       <c r="H38">
-        <v>0.52142857142857102</v>
+        <v>0.46292682926829298</v>
       </c>
       <c r="I38">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J38">
-        <v>1.1506849315068501E-3</v>
+        <v>1.12328767123288E-3</v>
       </c>
       <c r="K38">
-        <v>2.8767123287671201E-2</v>
+        <v>2.80821917808219E-2</v>
       </c>
       <c r="L38">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="M38">
-        <v>5.75342465753425E-2</v>
+        <v>5.6164383561643799E-2</v>
       </c>
       <c r="N38">
-        <v>0.115068493150685</v>
+        <v>0.112328767123288</v>
       </c>
       <c r="P38">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q38">
-        <v>7.12</v>
+        <v>6.9</v>
       </c>
       <c r="R38">
-        <v>649.70000000000005</v>
+        <v>629.625</v>
       </c>
       <c r="S38">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T38">
-        <v>7.12</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>1.04285714285714</v>
+      </c>
+      <c r="E39">
         <v>1</v>
       </c>
-      <c r="D39">
-        <v>1.2166666666666699</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
       <c r="F39">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G39">
-        <v>36.5</v>
+        <v>21.9</v>
       </c>
       <c r="H39">
-        <v>1.2166666666666699</v>
+        <v>0.52142857142857102</v>
       </c>
       <c r="I39">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="J39">
-        <v>8.2191780821917802E-4</v>
+        <v>1.1506849315068501E-3</v>
       </c>
       <c r="K39">
-        <v>2.0547945205479399E-2</v>
+        <v>2.8767123287671201E-2</v>
       </c>
       <c r="L39">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M39">
-        <v>8.2191780821917804E-2</v>
+        <v>5.75342465753425E-2</v>
       </c>
       <c r="N39">
-        <v>8.2191780821917804E-2</v>
+        <v>0.115068493150685</v>
       </c>
       <c r="P39">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q39">
-        <v>7.34</v>
+        <v>7.12</v>
       </c>
       <c r="R39">
-        <v>669.77499999999998</v>
+        <v>649.70000000000005</v>
       </c>
       <c r="S39">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T39">
-        <v>7.34</v>
+        <v>7.12</v>
       </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
+        <v>1.2166666666666699</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>25</v>
+      </c>
+      <c r="G40">
+        <v>36.5</v>
+      </c>
+      <c r="H40">
+        <v>1.2166666666666699</v>
+      </c>
+      <c r="I40">
+        <v>30</v>
+      </c>
+      <c r="J40">
+        <v>8.2191780821917802E-4</v>
+      </c>
+      <c r="K40">
+        <v>2.0547945205479399E-2</v>
+      </c>
+      <c r="L40">
+        <v>30</v>
+      </c>
+      <c r="M40">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="N40">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="P40">
+        <v>36</v>
+      </c>
+      <c r="Q40">
+        <v>7.34</v>
+      </c>
+      <c r="R40">
+        <v>669.77499999999998</v>
+      </c>
+      <c r="S40">
+        <v>36</v>
+      </c>
+      <c r="T40">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
         <v>0.29795918367346902</v>
       </c>
-      <c r="E40">
+      <c r="E41">
         <v>0</v>
       </c>
-      <c r="F40">
+      <c r="F41">
         <v>10</v>
       </c>
-      <c r="G40">
+      <c r="G41">
         <v>14.6</v>
       </c>
-      <c r="H40">
+      <c r="H41">
         <v>0.29795918367346902</v>
       </c>
-      <c r="I40">
+      <c r="I41">
         <v>49</v>
       </c>
-      <c r="J40">
+      <c r="J41">
         <v>1.3424657534246601E-3</v>
       </c>
-      <c r="K40">
+      <c r="K41">
         <v>3.3561643835616398E-2</v>
       </c>
-      <c r="L40">
+      <c r="L41">
         <v>49</v>
       </c>
-      <c r="M40">
+      <c r="M41">
         <v>0.13424657534246601</v>
       </c>
-      <c r="N40">
+      <c r="N41">
         <v>0.13424657534246601</v>
       </c>
-      <c r="P40">
+      <c r="P41">
         <v>37</v>
       </c>
-      <c r="Q40">
+      <c r="Q41">
         <v>7.56</v>
       </c>
-      <c r="R40">
+      <c r="R41">
         <v>689.85</v>
       </c>
-      <c r="S40">
+      <c r="S41">
         <v>37</v>
       </c>
-      <c r="T40">
+      <c r="T41">
         <v>7.56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="P41">
-        <v>38</v>
-      </c>
-      <c r="Q41">
-        <v>7.78</v>
-      </c>
-      <c r="R41">
-        <v>709.92499999999995</v>
-      </c>
-      <c r="S41">
-        <v>38</v>
-      </c>
-      <c r="T41">
-        <v>7.78</v>
       </c>
     </row>
     <row r="42" spans="1:20">
       <c r="P42">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q42">
-        <v>8</v>
+        <v>7.78</v>
       </c>
       <c r="R42">
-        <v>730</v>
+        <v>709.92499999999995</v>
       </c>
       <c r="S42">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="T42">
-        <v>8</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="43" spans="1:20">
       <c r="P43">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q43">
-        <v>8.2200000000000006</v>
+        <v>8</v>
       </c>
       <c r="R43">
-        <v>750.07500000000005</v>
+        <v>730</v>
       </c>
       <c r="S43">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T43">
-        <v>8.2200000000000006</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:20">
       <c r="P44">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q44">
-        <v>9.32</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="R44">
-        <v>850.45</v>
+        <v>750.07500000000005</v>
       </c>
       <c r="S44">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T44">
-        <v>8.44</v>
+        <v>8.2200000000000006</v>
       </c>
     </row>
     <row r="45" spans="1:20">
       <c r="P45">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q45">
-        <v>10.42</v>
+        <v>9.32</v>
       </c>
       <c r="R45">
-        <v>950.82500000000005</v>
+        <v>850.45</v>
       </c>
       <c r="S45">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T45">
-        <v>8.66</v>
+        <v>8.44</v>
       </c>
     </row>
     <row r="46" spans="1:20">
       <c r="P46">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q46">
-        <v>11.52</v>
+        <v>10.42</v>
       </c>
       <c r="R46">
-        <v>1051.2</v>
+        <v>950.82500000000005</v>
       </c>
       <c r="S46">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T46">
-        <v>8.8800000000000008</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="47" spans="1:20">
       <c r="P47">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Q47">
-        <v>12.62</v>
+        <v>11.52</v>
       </c>
       <c r="R47">
-        <v>1151.575</v>
+        <v>1051.2</v>
       </c>
       <c r="S47">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T47">
-        <v>9.1</v>
+        <v>8.8800000000000008</v>
       </c>
     </row>
     <row r="48" spans="1:20">
       <c r="P48">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Q48">
-        <v>13.72</v>
+        <v>12.62</v>
       </c>
       <c r="R48">
-        <v>1251.95</v>
+        <v>1151.575</v>
       </c>
       <c r="S48">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T48">
-        <v>9.32</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="49" spans="1:20">
       <c r="P49">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Q49">
-        <v>14.82</v>
+        <v>13.72</v>
       </c>
       <c r="R49">
-        <v>1352.325</v>
+        <v>1251.95</v>
       </c>
       <c r="S49">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T49">
-        <v>9.5399999999999991</v>
+        <v>9.32</v>
       </c>
     </row>
     <row r="50" spans="1:20">
       <c r="P50">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q50">
-        <v>15.92</v>
+        <v>14.82</v>
       </c>
       <c r="R50">
-        <v>1452.7</v>
+        <v>1352.325</v>
       </c>
       <c r="S50">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T50">
-        <v>9.76</v>
+        <v>9.5399999999999991</v>
       </c>
     </row>
     <row r="51" spans="1:20">
       <c r="P51">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Q51">
-        <v>17.02</v>
+        <v>15.92</v>
       </c>
       <c r="R51">
-        <v>1553.075</v>
+        <v>1452.7</v>
       </c>
       <c r="S51">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T51">
-        <v>9.98</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="52" spans="1:20">
       <c r="P52">
+        <v>80</v>
+      </c>
+      <c r="Q52">
+        <v>17.02</v>
+      </c>
+      <c r="R52">
+        <v>1553.075</v>
+      </c>
+      <c r="S52">
+        <v>48</v>
+      </c>
+      <c r="T52">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="P53">
         <v>85</v>
       </c>
-      <c r="Q52">
+      <c r="Q53">
         <v>18.12</v>
       </c>
-      <c r="R52">
+      <c r="R53">
         <v>1653.45</v>
       </c>
-      <c r="S52">
+      <c r="S53">
         <v>49</v>
       </c>
-      <c r="T52">
+      <c r="T53">
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
-      <c r="A53" t="s">
-        <v>46</v>
-      </c>
-      <c r="P53">
+    <row r="54" spans="1:20">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="P54">
         <v>95</v>
       </c>
-      <c r="Q53">
+      <c r="Q54">
         <v>20.32</v>
       </c>
-      <c r="R53">
+      <c r="R54">
         <v>1854.2</v>
       </c>
-      <c r="S53">
+      <c r="S54">
         <v>50</v>
       </c>
-      <c r="T53">
+      <c r="T54">
         <v>10.42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20">
-      <c r="P54">
-        <v>105</v>
-      </c>
-      <c r="Q54">
-        <v>22.52</v>
-      </c>
-      <c r="R54">
-        <v>2054.9499999999998</v>
-      </c>
-      <c r="S54">
-        <v>51</v>
-      </c>
-      <c r="T54">
-        <v>10.64</v>
       </c>
     </row>
     <row r="55" spans="1:20">
       <c r="P55">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="Q55">
-        <v>24.72</v>
+        <v>22.52</v>
       </c>
       <c r="R55">
-        <v>2255.6999999999998</v>
+        <v>2054.9499999999998</v>
       </c>
       <c r="S55">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T55">
-        <v>10.86</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="56" spans="1:20">
       <c r="P56">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="Q56">
-        <v>26.92</v>
+        <v>24.72</v>
       </c>
       <c r="R56">
-        <v>2456.4499999999998</v>
+        <v>2255.6999999999998</v>
       </c>
       <c r="S56">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T56">
-        <v>11.08</v>
+        <v>10.86</v>
       </c>
     </row>
     <row r="57" spans="1:20">
       <c r="P57">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="Q57">
-        <v>29.12</v>
+        <v>26.92</v>
       </c>
       <c r="R57">
-        <v>2657.2</v>
+        <v>2456.4499999999998</v>
       </c>
       <c r="S57">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T57">
-        <v>11.3</v>
+        <v>11.08</v>
       </c>
     </row>
     <row r="58" spans="1:20">
       <c r="P58">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="Q58">
-        <v>31.319999999999901</v>
+        <v>29.12</v>
       </c>
       <c r="R58">
-        <v>2857.9499999999898</v>
+        <v>2657.2</v>
       </c>
       <c r="S58">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T58">
-        <v>11.52</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="59" spans="1:20">
       <c r="P59">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="Q59">
-        <v>33.519999999999897</v>
+        <v>31.319999999999901</v>
       </c>
       <c r="R59">
-        <v>3058.6999999999898</v>
+        <v>2857.9499999999898</v>
       </c>
       <c r="S59">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T59">
-        <v>11.74</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="60" spans="1:20">
       <c r="P60">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Q60">
-        <v>35.719999999999899</v>
+        <v>33.519999999999897</v>
       </c>
       <c r="R60">
-        <v>3259.4499999999898</v>
+        <v>3058.6999999999898</v>
       </c>
       <c r="S60">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T60">
-        <v>11.96</v>
+        <v>11.74</v>
       </c>
     </row>
     <row r="61" spans="1:20">
       <c r="P61">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="Q61">
-        <v>37.919999999999902</v>
+        <v>35.719999999999899</v>
       </c>
       <c r="R61">
-        <v>3460.1999999999898</v>
+        <v>3259.4499999999898</v>
       </c>
       <c r="S61">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T61">
-        <v>12.18</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="62" spans="1:20">
       <c r="P62">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="Q62">
-        <v>40.119999999999898</v>
+        <v>37.919999999999902</v>
       </c>
       <c r="R62">
-        <v>3660.9499999999898</v>
+        <v>3460.1999999999898</v>
       </c>
       <c r="S62">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T62">
-        <v>12.4</v>
+        <v>12.18</v>
       </c>
     </row>
     <row r="63" spans="1:20">
       <c r="P63">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="Q63">
-        <v>42.319999999999901</v>
+        <v>40.119999999999898</v>
       </c>
       <c r="R63">
-        <v>3861.6999999999898</v>
+        <v>3660.9499999999898</v>
       </c>
       <c r="S63">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T63">
-        <v>12.62</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="64" spans="1:20">
       <c r="P64">
+        <v>195</v>
+      </c>
+      <c r="Q64">
+        <v>42.319999999999901</v>
+      </c>
+      <c r="R64">
+        <v>3861.6999999999898</v>
+      </c>
+      <c r="S64">
+        <v>60</v>
+      </c>
+      <c r="T64">
+        <v>12.62</v>
+      </c>
+    </row>
+    <row r="65" spans="16:20">
+      <c r="P65">
         <v>205</v>
       </c>
-      <c r="Q64">
+      <c r="Q65">
         <v>44.519999999999897</v>
       </c>
-      <c r="R64">
+      <c r="R65">
         <v>4062.4499999999898</v>
       </c>
-      <c r="S64">
+      <c r="S65">
         <v>61</v>
       </c>
-      <c r="T64">
+      <c r="T65">
         <v>12.84</v>
       </c>
     </row>
-    <row r="65" spans="19:20">
-      <c r="S65">
+    <row r="66" spans="16:20">
+      <c r="S66">
         <v>62</v>
       </c>
-      <c r="T65">
+      <c r="T66">
         <v>13.06</v>
       </c>
     </row>
-    <row r="66" spans="19:20">
-      <c r="S66">
+    <row r="67" spans="16:20">
+      <c r="S67">
         <v>63</v>
       </c>
-      <c r="T66">
+      <c r="T67">
         <v>13.28</v>
       </c>
     </row>
-    <row r="67" spans="19:20">
-      <c r="S67">
+    <row r="68" spans="16:20">
+      <c r="S68">
         <v>64</v>
       </c>
-      <c r="T67">
+      <c r="T68">
         <v>13.5</v>
       </c>
     </row>
-    <row r="68" spans="19:20">
-      <c r="S68">
+    <row r="69" spans="16:20">
+      <c r="S69">
         <v>65</v>
       </c>
-      <c r="T68">
+      <c r="T69">
         <v>13.72</v>
       </c>
     </row>
-    <row r="69" spans="19:20">
-      <c r="S69">
+    <row r="70" spans="16:20">
+      <c r="S70">
         <v>66</v>
       </c>
-      <c r="T69">
+      <c r="T70">
         <v>13.94</v>
       </c>
     </row>
-    <row r="70" spans="19:20">
-      <c r="S70">
+    <row r="71" spans="16:20">
+      <c r="S71">
         <v>67</v>
       </c>
-      <c r="T70">
+      <c r="T71">
         <v>14.16</v>
       </c>
     </row>
-    <row r="71" spans="19:20">
-      <c r="S71">
+    <row r="72" spans="16:20">
+      <c r="S72">
         <v>68</v>
       </c>
-      <c r="T71">
+      <c r="T72">
         <v>14.38</v>
       </c>
     </row>
-    <row r="72" spans="19:20">
-      <c r="S72">
+    <row r="73" spans="16:20">
+      <c r="S73">
         <v>69</v>
       </c>
-      <c r="T72">
+      <c r="T73">
         <v>14.6</v>
       </c>
     </row>
-    <row r="73" spans="19:20">
-      <c r="S73">
+    <row r="74" spans="16:20">
+      <c r="S74">
         <v>70</v>
       </c>
-      <c r="T73">
+      <c r="T74">
         <v>14.82</v>
       </c>
     </row>
-    <row r="74" spans="19:20">
-      <c r="S74">
+    <row r="75" spans="16:20">
+      <c r="S75">
         <v>71</v>
       </c>
-      <c r="T74">
+      <c r="T75">
         <v>15.04</v>
       </c>
     </row>
-    <row r="75" spans="19:20">
-      <c r="S75">
+    <row r="76" spans="16:20">
+      <c r="S76">
         <v>72</v>
       </c>
-      <c r="T75">
+      <c r="T76">
         <v>15.26</v>
       </c>
     </row>
-    <row r="76" spans="19:20">
-      <c r="S76">
+    <row r="77" spans="16:20">
+      <c r="S77">
         <v>73</v>
       </c>
-      <c r="T76">
+      <c r="T77">
         <v>15.48</v>
       </c>
     </row>
-    <row r="77" spans="19:20">
-      <c r="S77">
+    <row r="78" spans="16:20">
+      <c r="S78">
         <v>74</v>
       </c>
-      <c r="T77">
+      <c r="T78">
         <v>15.7</v>
       </c>
     </row>
-    <row r="78" spans="19:20">
-      <c r="S78">
+    <row r="79" spans="16:20">
+      <c r="S79">
         <v>75</v>
       </c>
-      <c r="T78">
+      <c r="T79">
         <v>15.92</v>
       </c>
     </row>
-    <row r="79" spans="19:20">
-      <c r="S79">
+    <row r="80" spans="16:20">
+      <c r="S80">
         <v>76</v>
       </c>
-      <c r="T79">
+      <c r="T80">
         <v>16.14</v>
       </c>
     </row>
-    <row r="80" spans="19:20">
-      <c r="S80">
+    <row r="81" spans="1:20">
+      <c r="S81">
         <v>77</v>
       </c>
-      <c r="T80">
+      <c r="T81">
         <v>16.36</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20">
-      <c r="A81" t="s">
-        <v>47</v>
-      </c>
-      <c r="C81" t="s">
-        <v>48</v>
-      </c>
-      <c r="F81" t="s">
-        <v>49</v>
-      </c>
-      <c r="G81" t="s">
-        <v>50</v>
-      </c>
-      <c r="I81" t="s">
-        <v>51</v>
-      </c>
-      <c r="S81">
-        <v>78</v>
-      </c>
-      <c r="T81">
-        <v>16.579999999999998</v>
       </c>
     </row>
     <row r="82" spans="1:20">
       <c r="A82" t="s">
-        <v>14</v>
-      </c>
-      <c r="C82">
-        <v>98</v>
+        <v>37</v>
+      </c>
+      <c r="C82" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" t="s">
+        <v>39</v>
+      </c>
+      <c r="G82" t="s">
+        <v>40</v>
+      </c>
+      <c r="I82" t="s">
+        <v>41</v>
       </c>
       <c r="S82">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T82">
-        <v>16.8</v>
+        <v>16.579999999999998</v>
       </c>
     </row>
     <row r="83" spans="1:20">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C83">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="S83">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="T83">
-        <v>17.02</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="84" spans="1:20">
       <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84">
         <v>52</v>
       </c>
-      <c r="C84">
-        <v>51</v>
-      </c>
       <c r="S84">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T84">
-        <v>17.239999999999998</v>
+        <v>17.02</v>
       </c>
     </row>
     <row r="85" spans="1:20">
       <c r="A85" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C85">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="S85">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T85">
-        <v>17.46</v>
+        <v>17.239999999999998</v>
       </c>
     </row>
     <row r="86" spans="1:20">
       <c r="A86" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C86">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S86">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T86">
-        <v>17.68</v>
+        <v>17.46</v>
       </c>
     </row>
     <row r="87" spans="1:20">
       <c r="A87" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C87">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S87">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T87">
-        <v>17.899999999999999</v>
+        <v>17.68</v>
       </c>
     </row>
     <row r="88" spans="1:20">
       <c r="A88" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C88">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="S88">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T88">
-        <v>18.12</v>
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:20">
       <c r="A89" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C89">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="S89">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T89">
-        <v>18.34</v>
+        <v>18.12</v>
       </c>
     </row>
     <row r="90" spans="1:20">
       <c r="A90" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C90">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="S90">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T90">
-        <v>18.559999999999999</v>
+        <v>18.34</v>
       </c>
     </row>
     <row r="91" spans="1:20">
       <c r="A91" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C91">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="S91">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T91">
-        <v>18.78</v>
+        <v>18.559999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:20">
       <c r="A92" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C92">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="S92">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T92">
-        <v>19</v>
+        <v>18.78</v>
       </c>
     </row>
     <row r="93" spans="1:20">
       <c r="A93" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S93">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T93">
-        <v>19.22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:20">
       <c r="A94" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C94">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="S94">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T94">
-        <v>19.440000000000001</v>
+        <v>19.22</v>
       </c>
     </row>
     <row r="95" spans="1:20">
       <c r="A95" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C95">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="S95">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95">
-        <v>19.66</v>
+        <v>19.440000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:20">
       <c r="A96" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="S96">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T96">
-        <v>19.88</v>
+        <v>19.66</v>
       </c>
     </row>
     <row r="97" spans="1:20">
       <c r="A97" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C97">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S97">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T97">
-        <v>20.100000000000001</v>
+        <v>19.88</v>
       </c>
     </row>
     <row r="98" spans="1:20">
       <c r="A98" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C98">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S98">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T98">
-        <v>20.32</v>
+        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:20">
       <c r="A99" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C99">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S99">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T99">
-        <v>20.54</v>
+        <v>20.32</v>
       </c>
     </row>
     <row r="100" spans="1:20">
       <c r="A100" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C100">
         <v>9</v>
       </c>
       <c r="S100">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T100">
-        <v>20.76</v>
+        <v>20.54</v>
       </c>
     </row>
     <row r="101" spans="1:20">
       <c r="A101" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S101">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T101">
-        <v>20.98</v>
+        <v>20.76</v>
       </c>
     </row>
     <row r="102" spans="1:20">
       <c r="A102" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C102">
         <v>4</v>
       </c>
       <c r="S102">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T102">
-        <v>21.2</v>
+        <v>20.98</v>
       </c>
     </row>
     <row r="103" spans="1:20">
       <c r="A103" t="s">
-        <v>69</v>
+        <v>58</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
       </c>
       <c r="S103">
+        <v>99</v>
+      </c>
+      <c r="T103">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20">
+      <c r="A104" t="s">
+        <v>59</v>
+      </c>
+      <c r="S104">
         <v>100</v>
       </c>
-      <c r="T103">
+      <c r="T104">
         <v>21.42</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20">
-      <c r="S104">
-        <v>101</v>
-      </c>
-      <c r="T104">
-        <v>21.64</v>
       </c>
     </row>
     <row r="105" spans="1:20">
       <c r="S105">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T105">
-        <v>21.86</v>
+        <v>21.64</v>
       </c>
     </row>
     <row r="106" spans="1:20">
       <c r="S106">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T106">
-        <v>22.08</v>
+        <v>21.86</v>
       </c>
     </row>
     <row r="107" spans="1:20">
       <c r="S107">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T107">
-        <v>22.3</v>
+        <v>22.08</v>
       </c>
     </row>
     <row r="108" spans="1:20">
       <c r="S108">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T108">
-        <v>22.52</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="109" spans="1:20">
       <c r="S109">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T109">
-        <v>22.74</v>
+        <v>22.52</v>
       </c>
     </row>
     <row r="110" spans="1:20">
       <c r="S110">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T110">
-        <v>22.96</v>
+        <v>22.74</v>
       </c>
     </row>
     <row r="111" spans="1:20">
       <c r="S111">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T111">
-        <v>23.18</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="112" spans="1:20">
       <c r="S112">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T112">
-        <v>23.4</v>
+        <v>23.18</v>
       </c>
     </row>
     <row r="113" spans="19:20">
       <c r="S113">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T113">
-        <v>23.62</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="114" spans="19:20">
       <c r="S114">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T114">
-        <v>23.84</v>
+        <v>23.62</v>
       </c>
     </row>
     <row r="115" spans="19:20">
       <c r="S115">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T115">
-        <v>24.06</v>
+        <v>23.84</v>
       </c>
     </row>
     <row r="116" spans="19:20">
       <c r="S116">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T116">
-        <v>24.28</v>
+        <v>24.06</v>
       </c>
     </row>
     <row r="117" spans="19:20">
       <c r="S117">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T117">
-        <v>24.5</v>
+        <v>24.28</v>
       </c>
     </row>
     <row r="118" spans="19:20">
       <c r="S118">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T118">
-        <v>24.72</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="119" spans="19:20">
       <c r="S119">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T119">
-        <v>24.94</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="120" spans="19:20">
       <c r="S120">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T120">
-        <v>25.16</v>
+        <v>24.94</v>
       </c>
     </row>
     <row r="121" spans="19:20">
       <c r="S121">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T121">
-        <v>25.38</v>
+        <v>25.16</v>
       </c>
     </row>
     <row r="122" spans="19:20">
       <c r="S122">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T122">
-        <v>25.6</v>
+        <v>25.38</v>
       </c>
     </row>
     <row r="123" spans="19:20">
       <c r="S123">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T123">
-        <v>25.82</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="124" spans="19:20">
       <c r="S124">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T124">
-        <v>26.04</v>
+        <v>25.82</v>
       </c>
     </row>
     <row r="125" spans="19:20">
       <c r="S125">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T125">
-        <v>26.26</v>
+        <v>26.04</v>
       </c>
     </row>
     <row r="126" spans="19:20">
       <c r="S126">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T126">
-        <v>26.48</v>
+        <v>26.26</v>
       </c>
     </row>
     <row r="127" spans="19:20">
       <c r="S127">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T127">
-        <v>26.7</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="128" spans="19:20">
       <c r="S128">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T128">
-        <v>26.92</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="129" spans="19:20">
       <c r="S129">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T129">
-        <v>27.14</v>
+        <v>26.92</v>
       </c>
     </row>
     <row r="130" spans="19:20">
       <c r="S130">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T130">
-        <v>27.36</v>
+        <v>27.14</v>
       </c>
     </row>
     <row r="131" spans="19:20">
       <c r="S131">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T131">
-        <v>27.58</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="132" spans="19:20">
       <c r="S132">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T132">
-        <v>27.8</v>
+        <v>27.58</v>
       </c>
     </row>
     <row r="133" spans="19:20">
       <c r="S133">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T133">
-        <v>28.02</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="134" spans="19:20">
       <c r="S134">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="T134">
-        <v>28.24</v>
+        <v>28.02</v>
       </c>
     </row>
     <row r="135" spans="19:20">
       <c r="S135">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T135">
-        <v>28.46</v>
+        <v>28.24</v>
       </c>
     </row>
     <row r="136" spans="19:20">
       <c r="S136">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T136">
-        <v>28.68</v>
+        <v>28.46</v>
       </c>
     </row>
     <row r="137" spans="19:20">
       <c r="S137">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="T137">
-        <v>28.9</v>
+        <v>28.68</v>
       </c>
     </row>
     <row r="138" spans="19:20">
       <c r="S138">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T138">
-        <v>29.12</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="139" spans="19:20">
       <c r="S139">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T139">
-        <v>29.34</v>
+        <v>29.12</v>
       </c>
     </row>
     <row r="140" spans="19:20">
       <c r="S140">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T140">
-        <v>29.56</v>
+        <v>29.34</v>
       </c>
     </row>
     <row r="141" spans="19:20">
       <c r="S141">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T141">
-        <v>29.78</v>
+        <v>29.56</v>
       </c>
     </row>
     <row r="142" spans="19:20">
       <c r="S142">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T142">
-        <v>30</v>
+        <v>29.78</v>
       </c>
     </row>
     <row r="143" spans="19:20">
       <c r="S143">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T143">
-        <v>30.22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="144" spans="19:20">
       <c r="S144">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T144">
-        <v>30.44</v>
+        <v>30.22</v>
       </c>
     </row>
     <row r="145" spans="19:20">
       <c r="S145">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T145">
-        <v>30.66</v>
+        <v>30.44</v>
       </c>
     </row>
     <row r="146" spans="19:20">
       <c r="S146">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T146">
-        <v>30.88</v>
+        <v>30.66</v>
       </c>
     </row>
     <row r="147" spans="19:20">
       <c r="S147">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T147">
-        <v>31.1</v>
+        <v>30.88</v>
       </c>
     </row>
     <row r="148" spans="19:20">
       <c r="S148">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="T148">
-        <v>31.32</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="149" spans="19:20">
       <c r="S149">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T149">
-        <v>31.54</v>
+        <v>31.32</v>
       </c>
     </row>
     <row r="150" spans="19:20">
       <c r="S150">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="T150">
-        <v>31.76</v>
+        <v>31.54</v>
       </c>
     </row>
     <row r="151" spans="19:20">
       <c r="S151">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="T151">
-        <v>31.98</v>
+        <v>31.76</v>
       </c>
     </row>
     <row r="152" spans="19:20">
       <c r="S152">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T152">
-        <v>32.200000000000003</v>
+        <v>31.98</v>
       </c>
     </row>
     <row r="153" spans="19:20">
       <c r="S153">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T153">
-        <v>32.42</v>
+        <v>32.200000000000003</v>
       </c>
     </row>
     <row r="154" spans="19:20">
       <c r="S154">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T154">
-        <v>32.64</v>
+        <v>32.42</v>
       </c>
     </row>
     <row r="155" spans="19:20">
       <c r="S155">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T155">
-        <v>32.86</v>
+        <v>32.64</v>
       </c>
     </row>
     <row r="156" spans="19:20">
       <c r="S156">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="T156">
-        <v>33.08</v>
+        <v>32.86</v>
       </c>
     </row>
     <row r="157" spans="19:20">
       <c r="S157">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T157">
-        <v>33.299999999999997</v>
+        <v>33.08</v>
       </c>
     </row>
     <row r="158" spans="19:20">
       <c r="S158">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T158">
-        <v>33.520000000000003</v>
+        <v>33.299999999999997</v>
       </c>
     </row>
     <row r="159" spans="19:20">
       <c r="S159">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T159">
-        <v>33.74</v>
+        <v>33.520000000000003</v>
       </c>
     </row>
     <row r="160" spans="19:20">
       <c r="S160">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T160">
-        <v>33.96</v>
+        <v>33.74</v>
       </c>
     </row>
     <row r="161" spans="19:20">
       <c r="S161">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T161">
-        <v>34.18</v>
+        <v>33.96</v>
       </c>
     </row>
     <row r="162" spans="19:20">
       <c r="S162">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T162">
-        <v>34.4</v>
+        <v>34.18</v>
       </c>
     </row>
     <row r="163" spans="19:20">
       <c r="S163">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="T163">
-        <v>34.619999999999997</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="164" spans="19:20">
       <c r="S164">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T164">
-        <v>34.840000000000003</v>
+        <v>34.619999999999997</v>
       </c>
     </row>
     <row r="165" spans="19:20">
       <c r="S165">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T165">
-        <v>35.06</v>
+        <v>34.840000000000003</v>
       </c>
     </row>
     <row r="166" spans="19:20">
       <c r="S166">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="T166">
-        <v>35.28</v>
+        <v>35.06</v>
       </c>
     </row>
     <row r="167" spans="19:20">
       <c r="S167">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="T167">
-        <v>35.5</v>
+        <v>35.28</v>
       </c>
     </row>
     <row r="168" spans="19:20">
       <c r="S168">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T168">
-        <v>35.72</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="169" spans="19:20">
       <c r="S169">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="T169">
-        <v>35.94</v>
+        <v>35.72</v>
       </c>
     </row>
     <row r="170" spans="19:20">
       <c r="S170">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T170">
-        <v>36.159999999999997</v>
+        <v>35.94</v>
       </c>
     </row>
     <row r="171" spans="19:20">
       <c r="S171">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T171">
-        <v>36.380000000000003</v>
+        <v>36.159999999999997</v>
       </c>
     </row>
     <row r="172" spans="19:20">
       <c r="S172">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T172">
-        <v>36.6</v>
+        <v>36.380000000000003</v>
       </c>
     </row>
     <row r="173" spans="19:20">
       <c r="S173">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T173">
-        <v>36.82</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="174" spans="19:20">
       <c r="S174">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T174">
-        <v>37.04</v>
+        <v>36.82</v>
       </c>
     </row>
     <row r="175" spans="19:20">
       <c r="S175">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T175">
-        <v>37.26</v>
+        <v>37.04</v>
       </c>
     </row>
     <row r="176" spans="19:20">
       <c r="S176">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T176">
-        <v>37.479999999999997</v>
+        <v>37.26</v>
       </c>
     </row>
     <row r="177" spans="19:20">
       <c r="S177">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T177">
-        <v>37.700000000000003</v>
+        <v>37.479999999999997</v>
       </c>
     </row>
     <row r="178" spans="19:20">
       <c r="S178">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T178">
-        <v>37.92</v>
+        <v>37.700000000000003</v>
       </c>
     </row>
     <row r="179" spans="19:20">
       <c r="S179">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T179">
-        <v>38.14</v>
+        <v>37.92</v>
       </c>
     </row>
     <row r="180" spans="19:20">
       <c r="S180">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T180">
-        <v>38.36</v>
+        <v>38.14</v>
       </c>
     </row>
     <row r="181" spans="19:20">
       <c r="S181">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T181">
-        <v>38.58</v>
+        <v>38.36</v>
       </c>
     </row>
     <row r="182" spans="19:20">
       <c r="S182">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T182">
-        <v>38.799999999999997</v>
+        <v>38.58</v>
       </c>
     </row>
     <row r="183" spans="19:20">
       <c r="S183">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T183">
-        <v>39.020000000000003</v>
+        <v>38.799999999999997</v>
       </c>
     </row>
     <row r="184" spans="19:20">
       <c r="S184">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="T184">
-        <v>39.24</v>
+        <v>39.020000000000003</v>
       </c>
     </row>
     <row r="185" spans="19:20">
       <c r="S185">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="T185">
-        <v>39.46</v>
+        <v>39.24</v>
       </c>
     </row>
     <row r="186" spans="19:20">
       <c r="S186">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T186">
-        <v>39.68</v>
+        <v>39.46</v>
       </c>
     </row>
     <row r="187" spans="19:20">
       <c r="S187">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T187">
-        <v>39.9</v>
+        <v>39.68</v>
       </c>
     </row>
     <row r="188" spans="19:20">
       <c r="S188">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T188">
-        <v>40.119999999999997</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="189" spans="19:20">
       <c r="S189">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="T189">
-        <v>40.340000000000003</v>
+        <v>40.119999999999997</v>
       </c>
     </row>
     <row r="190" spans="19:20">
       <c r="S190">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T190">
-        <v>40.56</v>
+        <v>40.340000000000003</v>
       </c>
     </row>
     <row r="191" spans="19:20">
       <c r="S191">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="T191">
-        <v>40.78</v>
+        <v>40.56</v>
       </c>
     </row>
     <row r="192" spans="19:20">
       <c r="S192">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="T192">
-        <v>41</v>
+        <v>40.78</v>
       </c>
     </row>
     <row r="193" spans="19:20">
       <c r="S193">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T193">
-        <v>41.22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="194" spans="19:20">
       <c r="S194">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T194">
-        <v>41.44</v>
+        <v>41.22</v>
       </c>
     </row>
     <row r="195" spans="19:20">
       <c r="S195">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T195">
-        <v>41.66</v>
+        <v>41.44</v>
       </c>
     </row>
     <row r="196" spans="19:20">
       <c r="S196">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T196">
-        <v>41.88</v>
+        <v>41.66</v>
       </c>
     </row>
     <row r="197" spans="19:20">
       <c r="S197">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T197">
-        <v>42.1</v>
+        <v>41.88</v>
       </c>
     </row>
     <row r="198" spans="19:20">
       <c r="S198">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T198">
-        <v>42.32</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="199" spans="19:20">
       <c r="S199">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T199">
-        <v>42.54</v>
+        <v>42.32</v>
       </c>
     </row>
     <row r="200" spans="19:20">
       <c r="S200">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="T200">
-        <v>42.76</v>
+        <v>42.54</v>
       </c>
     </row>
     <row r="201" spans="19:20">
       <c r="S201">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T201">
-        <v>42.98</v>
+        <v>42.76</v>
       </c>
     </row>
     <row r="202" spans="19:20">
       <c r="S202">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T202">
-        <v>43.2</v>
+        <v>42.98</v>
       </c>
     </row>
     <row r="203" spans="19:20">
       <c r="S203">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="T203">
-        <v>43.42</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="204" spans="19:20">
       <c r="S204">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T204">
-        <v>43.64</v>
+        <v>43.42</v>
       </c>
     </row>
     <row r="205" spans="19:20">
       <c r="S205">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="T205">
-        <v>43.86</v>
+        <v>43.64</v>
       </c>
     </row>
     <row r="206" spans="19:20">
       <c r="S206">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T206">
-        <v>44.08</v>
+        <v>43.86</v>
       </c>
     </row>
     <row r="207" spans="19:20">
       <c r="S207">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T207">
-        <v>44.3</v>
+        <v>44.08</v>
       </c>
     </row>
     <row r="208" spans="19:20">
       <c r="S208">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T208">
-        <v>44.52</v>
+        <v>44.3</v>
       </c>
     </row>
     <row r="209" spans="19:20">
       <c r="S209">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T209">
-        <v>44.74</v>
+        <v>44.52</v>
       </c>
     </row>
     <row r="210" spans="19:20">
       <c r="S210">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="T210">
-        <v>44.96</v>
+        <v>44.74</v>
       </c>
     </row>
     <row r="211" spans="19:20">
       <c r="S211">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T211">
-        <v>45.18</v>
+        <v>44.96</v>
       </c>
     </row>
     <row r="212" spans="19:20">
       <c r="S212">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="T212">
-        <v>45.4</v>
+        <v>45.18</v>
       </c>
     </row>
     <row r="213" spans="19:20">
       <c r="S213">
+        <v>209</v>
+      </c>
+      <c r="T213">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="214" spans="19:20">
+      <c r="S214">
         <v>210</v>
       </c>
-      <c r="T213">
+      <c r="T214">
         <v>45.62</v>
       </c>
     </row>
